--- a/data/trans_orig/COM_FRUTA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/COM_FRUTA-Edad-trans_orig.xlsx
@@ -965,97 +965,97 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>346</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>336</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1647,97 +1647,97 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>344</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,48%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>339</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>0,51%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr">
-        <is>
-          <t>342</t>
-        </is>
-      </c>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2329,97 +2329,97 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>328</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K18" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>328</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O18" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>0,33%</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr">
-        <is>
-          <t>328</t>
-        </is>
-      </c>
-      <c r="U18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3011,97 +3011,97 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>336</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K24" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O24" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P24" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T24" s="2" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="U24" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3693,97 +3693,97 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>0,26%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K30" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O30" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t>0,22%</t>
-        </is>
-      </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="U30" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4375,97 +4375,97 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>0,29%</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K36" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M36" s="2" t="inlineStr">
-        <is>
-          <t>318</t>
-        </is>
-      </c>
-      <c r="N36" s="2" t="inlineStr">
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O36" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P36" s="2" t="inlineStr">
-        <is>
-          <t>0,27%</t>
-        </is>
-      </c>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T36" s="2" t="inlineStr">
-        <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="U36" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5057,97 +5057,97 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>339</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K42" s="2" t="inlineStr">
+      <c r="R42" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M42" s="2" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="N42" s="2" t="inlineStr">
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U42" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O42" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P42" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
-      <c r="Q42" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R42" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S42" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T42" s="2" t="inlineStr">
-        <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="U42" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5739,97 +5739,97 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>334</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="inlineStr">
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>0,05%</t>
-        </is>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K48" s="2" t="inlineStr">
+      <c r="R48" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M48" s="2" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="N48" s="2" t="inlineStr">
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U48" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O48" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P48" s="2" t="inlineStr">
-        <is>
-          <t>0,04%</t>
-        </is>
-      </c>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R48" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S48" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T48" s="2" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="U48" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -9848,12 +9848,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -9863,12 +9863,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">

--- a/data/trans_orig/COM_FRUTA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/COM_FRUTA-Edad-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Comercios de frutas y verduras en País Vasco</t>
+          <t>Comercios de frutas y verduras en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6243,7 +6243,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Comercios de frutas y verduras en Barcelona</t>
+          <t>Comercios de frutas y verduras en Barcelona (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/COM_FRUTA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/COM_FRUTA-Edad-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1844</t>
+          <t>2300</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3264</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>3654</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2097</t>
+          <t>2131</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5327</t>
+          <t>6553</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>3536</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>7521</t>
+          <t>8932</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,57%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3530</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2298</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5335</t>
+          <t>5576</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,67 +882,67 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4369</t>
+          <t>4869</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2971</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>7143</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>10,45%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>8507</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>6395</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>11329</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>6,26%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
           <t>4,7%</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>9,97%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>7899</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>5787</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>10155</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>6,18%</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>4,53%</t>
-        </is>
-      </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>8,33%</t>
         </is>
       </c>
     </row>
@@ -1073,102 +1073,102 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22988</t>
+          <t>23871</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19729</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26442</t>
+          <t>27470</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>35,28%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30,3%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>40,6%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>19883</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16499</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>23573</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>29,1%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>24,15%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>34,5%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>43754</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>38395</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>48377</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>32,18%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>28,23%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
           <t>35,58%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>30,54%</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>40,93%</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>20331</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>16948</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>23585</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>32,17%</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>26,82%</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>37,32%</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>43320</t>
-        </is>
-      </c>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>38779</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t>47849</t>
-        </is>
-      </c>
-      <c r="U7" s="2" t="inlineStr">
-        <is>
-          <t>33,9%</t>
-        </is>
-      </c>
-      <c r="V7" s="2" t="inlineStr">
-        <is>
-          <t>30,34%</t>
-        </is>
-      </c>
-      <c r="W7" s="2" t="inlineStr">
-        <is>
-          <t>37,44%</t>
         </is>
       </c>
     </row>
@@ -1186,32 +1186,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>36247</t>
+          <t>37845</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32561</t>
+          <t>34407</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>39576</t>
+          <t>41550</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>56,1%</t>
+          <t>55,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>50,4%</t>
+          <t>50,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>61,25%</t>
+          <t>61,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1221,32 +1221,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>35104</t>
+          <t>39924</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>31618</t>
+          <t>35822</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>38735</t>
+          <t>43629</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>55,55%</t>
+          <t>58,43%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>50,03%</t>
+          <t>52,43%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>61,3%</t>
+          <t>63,85%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1256,32 +1256,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>71350</t>
+          <t>77768</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>66585</t>
+          <t>72684</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>76318</t>
+          <t>83503</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>55,83%</t>
+          <t>57,19%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>52,1%</t>
+          <t>53,45%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>59,71%</t>
+          <t>61,41%</t>
         </is>
       </c>
     </row>
@@ -1299,17 +1299,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,17 +1334,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,17 +1369,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4123</t>
+          <t>4848</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2476</t>
+          <t>2914</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>7553</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2145</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>969</t>
+          <t>1286</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4075</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6268</t>
+          <t>7268</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4339</t>
+          <t>4804</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>9044</t>
+          <t>10293</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -1529,32 +1529,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5145</t>
+          <t>6138</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3433</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7269</t>
+          <t>9217</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1564,32 +1564,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7301</t>
+          <t>7273</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5433</t>
+          <t>5314</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10116</t>
+          <t>10344</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1599,32 +1599,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>12446</t>
+          <t>13411</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>9361</t>
+          <t>10319</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>15403</t>
+          <t>17134</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>9,48%</t>
         </is>
       </c>
     </row>
@@ -1755,32 +1755,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21855</t>
+          <t>31166</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18284</t>
+          <t>26677</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25493</t>
+          <t>36070</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>34,13%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>29,21%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1790,32 +1790,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21295</t>
+          <t>27344</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18080</t>
+          <t>22997</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25381</t>
+          <t>32036</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1825,32 +1825,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>43149</t>
+          <t>58509</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>38215</t>
+          <t>51682</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>48014</t>
+          <t>64674</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>31,23%</t>
+          <t>32,36%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>35,77%</t>
         </is>
       </c>
     </row>
@@ -1868,32 +1868,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>40762</t>
+          <t>49173</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36854</t>
+          <t>44379</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>44461</t>
+          <t>53872</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>53,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>51,27%</t>
+          <t>48,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>61,85%</t>
+          <t>58,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1903,32 +1903,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>35523</t>
+          <t>52456</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>31965</t>
+          <t>47240</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>39066</t>
+          <t>57029</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>53,61%</t>
+          <t>58,61%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>48,24%</t>
+          <t>52,79%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>58,95%</t>
+          <t>63,72%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1938,32 +1938,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>76285</t>
+          <t>101629</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>70956</t>
+          <t>95234</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>81372</t>
+          <t>108165</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>55,22%</t>
+          <t>56,21%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>51,36%</t>
+          <t>52,67%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>58,9%</t>
+          <t>59,82%</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2016,17 +2016,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2051,17 +2051,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2098,32 +2098,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8033</t>
+          <t>7717</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6016</t>
+          <t>5477</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11378</t>
+          <t>10489</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2133,32 +2133,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6637</t>
+          <t>7110</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4799</t>
+          <t>4890</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>9137</t>
+          <t>9828</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2168,32 +2168,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>14670</t>
+          <t>14827</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>11438</t>
+          <t>11714</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>18597</t>
+          <t>18992</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>7,5%</t>
         </is>
       </c>
     </row>
@@ -2211,32 +2211,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8302</t>
+          <t>10714</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6162</t>
+          <t>7760</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11082</t>
+          <t>13981</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2246,32 +2246,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9472</t>
+          <t>12121</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7176</t>
+          <t>9241</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12303</t>
+          <t>15808</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2281,32 +2281,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>17775</t>
+          <t>22834</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>14418</t>
+          <t>19031</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>21779</t>
+          <t>27791</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>10,98%</t>
         </is>
       </c>
     </row>
@@ -2437,32 +2437,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31656</t>
+          <t>38273</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27653</t>
+          <t>32900</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>35604</t>
+          <t>43688</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>32,44%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>26,02%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2472,32 +2472,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31113</t>
+          <t>37001</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>27072</t>
+          <t>32343</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>35349</t>
+          <t>41689</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>29,21%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>32,91%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2507,32 +2507,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>75274</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>56526</t>
+          <t>68057</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>68206</t>
+          <t>82984</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>31,75%</t>
+          <t>29,74%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>32,78%</t>
         </is>
       </c>
     </row>
@@ -2550,32 +2550,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>49596</t>
+          <t>69739</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>44923</t>
+          <t>64263</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>53642</t>
+          <t>75427</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
+          <t>55,15%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>50,82%</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>46,03%</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>54,97%</t>
+          <t>59,65%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2585,32 +2585,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>52914</t>
+          <t>70462</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>48285</t>
+          <t>64810</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>57245</t>
+          <t>75751</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>52,84%</t>
+          <t>55,62%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>48,22%</t>
+          <t>51,15%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>57,17%</t>
+          <t>59,79%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2620,32 +2620,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>102510</t>
+          <t>140200</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>96457</t>
+          <t>132009</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>109008</t>
+          <t>147850</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>51,85%</t>
+          <t>55,39%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>52,15%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>55,13%</t>
+          <t>58,41%</t>
         </is>
       </c>
     </row>
@@ -2663,17 +2663,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2698,17 +2698,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2733,17 +2733,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2780,32 +2780,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7068</t>
+          <t>7174</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5189</t>
+          <t>5149</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>9542</t>
+          <t>9850</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2815,32 +2815,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8459</t>
+          <t>7578</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>6188</t>
+          <t>5627</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>11243</t>
+          <t>10026</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2850,32 +2850,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>15527</t>
+          <t>14752</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>12141</t>
+          <t>11775</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>19130</t>
+          <t>18006</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,04%</t>
         </is>
       </c>
     </row>
@@ -2893,32 +2893,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>12204</t>
+          <t>10464</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9330</t>
+          <t>7774</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>15276</t>
+          <t>13569</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2928,32 +2928,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>9255</t>
+          <t>9007</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>6893</t>
+          <t>6753</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>12529</t>
+          <t>11684</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2963,32 +2963,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>21459</t>
+          <t>19471</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>17741</t>
+          <t>15966</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>26072</t>
+          <t>23377</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>7,84%</t>
         </is>
       </c>
     </row>
@@ -3119,32 +3119,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>47156</t>
+          <t>48511</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>42241</t>
+          <t>43419</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>52302</t>
+          <t>53471</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>29,91%</t>
+          <t>29,31%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>36,09%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3154,32 +3154,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>46196</t>
+          <t>48883</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>41570</t>
+          <t>44032</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>51169</t>
+          <t>54254</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>32,57%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>29,34%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3189,32 +3189,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>93352</t>
+          <t>97395</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>85993</t>
+          <t>90243</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>99758</t>
+          <t>105095</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>35,24%</t>
         </is>
       </c>
     </row>
@@ -3232,32 +3232,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>74822</t>
+          <t>81990</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>69793</t>
+          <t>76369</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>79789</t>
+          <t>87397</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>52,97%</t>
+          <t>55,35%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>49,41%</t>
+          <t>51,55%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>56,49%</t>
+          <t>59,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3267,32 +3267,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>76510</t>
+          <t>84606</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>71231</t>
+          <t>78920</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>81353</t>
+          <t>90095</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>54,49%</t>
+          <t>56,38%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>50,73%</t>
+          <t>52,59%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>57,94%</t>
+          <t>60,03%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3302,32 +3302,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>151332</t>
+          <t>166597</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>144608</t>
+          <t>158264</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>159357</t>
+          <t>174222</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>53,73%</t>
+          <t>55,86%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>51,34%</t>
+          <t>53,07%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>56,58%</t>
+          <t>58,42%</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3380,17 +3380,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3415,17 +3415,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3462,32 +3462,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3719</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>7994</t>
+          <t>6671</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3497,32 +3497,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>6550</t>
+          <t>5679</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>4665</t>
+          <t>3957</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>8698</t>
+          <t>7706</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3532,32 +3532,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>12057</t>
+          <t>10257</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>9256</t>
+          <t>7975</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>15459</t>
+          <t>13090</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>4,85%</t>
         </is>
       </c>
     </row>
@@ -3575,32 +3575,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>9467</t>
+          <t>9566</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7198</t>
+          <t>7307</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>12403</t>
+          <t>12170</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3610,32 +3610,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>11081</t>
+          <t>9307</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>8412</t>
+          <t>7127</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>14392</t>
+          <t>12068</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3645,32 +3645,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>20548</t>
+          <t>18873</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>17000</t>
+          <t>15863</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>24382</t>
+          <t>22479</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>8,33%</t>
         </is>
       </c>
     </row>
@@ -3801,32 +3801,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>46845</t>
+          <t>43131</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>41771</t>
+          <t>38804</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>51636</t>
+          <t>47937</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>36,79%</t>
+          <t>33,16%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>40,56%</t>
+          <t>36,86%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3836,32 +3836,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>45253</t>
+          <t>43158</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>40459</t>
+          <t>38911</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>49917</t>
+          <t>47773</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>34,18%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3871,32 +3871,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>92099</t>
+          <t>86290</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>85042</t>
+          <t>80058</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>99763</t>
+          <t>92979</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>29,67%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>34,46%</t>
         </is>
       </c>
     </row>
@@ -3914,32 +3914,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>65499</t>
+          <t>72794</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>60525</t>
+          <t>67204</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>70619</t>
+          <t>77341</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>51,45%</t>
+          <t>55,97%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>47,54%</t>
+          <t>51,67%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>55,47%</t>
+          <t>59,46%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3949,32 +3949,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>86747</t>
+          <t>81621</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>81622</t>
+          <t>76880</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>91944</t>
+          <t>86520</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>57,97%</t>
+          <t>58,4%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>54,55%</t>
+          <t>55,01%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>61,45%</t>
+          <t>61,9%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3984,32 +3984,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>152246</t>
+          <t>154415</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>144922</t>
+          <t>147330</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>159437</t>
+          <t>160887</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>54,97%</t>
+          <t>57,23%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>52,33%</t>
+          <t>54,6%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>57,57%</t>
+          <t>59,62%</t>
         </is>
       </c>
     </row>
@@ -4027,17 +4027,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4062,17 +4062,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4097,17 +4097,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4144,32 +4144,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>5378</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>3532</t>
+          <t>2464</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>7711</t>
+          <t>5328</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4179,32 +4179,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>2922</t>
+          <t>2937</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>1769</t>
+          <t>1808</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>4926</t>
+          <t>4670</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4214,32 +4214,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>8300</t>
+          <t>6562</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>4705</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>11344</t>
+          <t>8766</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,22%</t>
         </is>
       </c>
     </row>
@@ -4257,32 +4257,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>7842</t>
+          <t>6378</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>5531</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>10540</t>
+          <t>8873</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4292,32 +4292,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>6728</t>
+          <t>6222</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>4824</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>8961</t>
+          <t>8385</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4327,32 +4327,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>14570</t>
+          <t>12600</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>11355</t>
+          <t>9916</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>17985</t>
+          <t>15415</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,42%</t>
         </is>
       </c>
     </row>
@@ -4483,32 +4483,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>30396</t>
+          <t>24476</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>26271</t>
+          <t>21139</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>34766</t>
+          <t>27799</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4518,32 +4518,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>37924</t>
+          <t>33582</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>33632</t>
+          <t>29675</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>42972</t>
+          <t>37748</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>29,99%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>33,71%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4553,32 +4553,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>68320</t>
+          <t>58059</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>62609</t>
+          <t>52838</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>74815</t>
+          <t>63342</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>25,45%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>30,51%</t>
         </is>
       </c>
     </row>
@@ -4596,32 +4596,32 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>69448</t>
+          <t>61172</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>64378</t>
+          <t>57493</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>73640</t>
+          <t>64751</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>61,42%</t>
+          <t>63,95%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>56,94%</t>
+          <t>60,11%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>65,13%</t>
+          <t>67,69%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -4631,32 +4631,32 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>69667</t>
+          <t>69229</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>64522</t>
+          <t>65055</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>74040</t>
+          <t>73200</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>59,42%</t>
+          <t>61,83%</t>
         </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>55,03%</t>
+          <t>58,1%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>63,15%</t>
+          <t>65,37%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -4666,32 +4666,32 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>139115</t>
+          <t>130402</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>132493</t>
+          <t>124952</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>145331</t>
+          <t>136056</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>60,4%</t>
+          <t>62,81%</t>
         </is>
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
+          <t>60,18%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>63,1%</t>
+          <t>65,53%</t>
         </is>
       </c>
     </row>
@@ -4709,17 +4709,17 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -4744,17 +4744,17 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -4779,17 +4779,17 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -4826,32 +4826,32 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>3978</t>
+          <t>3047</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>2632</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>6024</t>
+          <t>4549</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4861,32 +4861,32 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>6904</t>
+          <t>6056</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>5024</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>9496</t>
+          <t>8354</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4896,32 +4896,32 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>10882</t>
+          <t>9102</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>8272</t>
+          <t>6934</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>13972</t>
+          <t>11588</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>5,61%</t>
         </is>
       </c>
     </row>
@@ -4939,32 +4939,32 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>6272</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>4418</t>
+          <t>3049</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>8797</t>
+          <t>6291</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4974,32 +4974,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>7979</t>
+          <t>6053</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>5823</t>
+          <t>4370</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>10671</t>
+          <t>8323</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5009,32 +5009,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>14251</t>
+          <t>10531</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>11271</t>
+          <t>8085</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>18056</t>
+          <t>13270</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>6,43%</t>
         </is>
       </c>
     </row>
@@ -5165,32 +5165,32 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>28198</t>
+          <t>22315</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>24286</t>
+          <t>18992</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>32243</t>
+          <t>25753</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>28,76%</t>
+          <t>27,75%</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>23,62%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>32,88%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -5200,32 +5200,32 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>35138</t>
+          <t>32382</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>31119</t>
+          <t>28394</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>39669</t>
+          <t>36822</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -5235,32 +5235,32 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>63336</t>
+          <t>54698</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>57129</t>
+          <t>49872</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>69308</t>
+          <t>59926</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>29,95%</t>
+          <t>29,03%</t>
         </is>
       </c>
     </row>
@@ -5278,32 +5278,32 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>59610</t>
+          <t>50563</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>55018</t>
+          <t>46798</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>63629</t>
+          <t>54008</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>60,79%</t>
+          <t>62,89%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>56,11%</t>
+          <t>58,2%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>64,89%</t>
+          <t>67,17%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -5313,32 +5313,32 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>83318</t>
+          <t>81542</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>78255</t>
+          <t>76874</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>88245</t>
+          <t>85693</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>62,49%</t>
+          <t>64,7%</t>
         </is>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>58,69%</t>
+          <t>60,99%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>66,18%</t>
+          <t>67,99%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -5348,32 +5348,32 @@
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>142929</t>
+          <t>132105</t>
         </is>
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>136540</t>
+          <t>126680</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>149515</t>
+          <t>137524</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>61,77%</t>
+          <t>63,99%</t>
         </is>
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>59,01%</t>
+          <t>61,37%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>64,61%</t>
+          <t>66,62%</t>
         </is>
       </c>
     </row>
@@ -5391,17 +5391,17 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -5426,17 +5426,17 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
@@ -5461,17 +5461,17 @@
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="U45" s="2" t="inlineStr">
@@ -5508,32 +5508,32 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>35930</t>
+          <t>33289</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>30929</t>
+          <t>28399</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>41574</t>
+          <t>38072</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -5543,32 +5543,32 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>37008</t>
+          <t>35434</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>32504</t>
+          <t>30370</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>42819</t>
+          <t>40645</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
@@ -5578,32 +5578,32 @@
       </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
-          <t>72939</t>
+          <t>68723</t>
         </is>
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>66062</t>
+          <t>61691</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>81118</t>
+          <t>75897</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>4,89%</t>
         </is>
       </c>
     </row>
@@ -5621,32 +5621,32 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>52763</t>
+          <t>51376</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>46776</t>
+          <t>45818</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>58884</t>
+          <t>57854</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -5656,32 +5656,32 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>56185</t>
+          <t>54851</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>50385</t>
+          <t>49460</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>63066</t>
+          <t>62636</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -5691,32 +5691,32 @@
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
-          <t>108948</t>
+          <t>106227</t>
         </is>
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>99914</t>
+          <t>97964</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>117412</t>
+          <t>115558</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>7,45%</t>
         </is>
       </c>
     </row>
@@ -5847,32 +5847,32 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>229095</t>
+          <t>231745</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>216649</t>
+          <t>219476</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>239637</t>
+          <t>243284</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>32,1%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>29,67%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>33,57%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -5882,32 +5882,32 @@
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>237250</t>
+          <t>242234</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>226117</t>
+          <t>230186</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>249043</t>
+          <t>253318</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>32,33%</t>
+          <t>31,18%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -5917,32 +5917,32 @@
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>466345</t>
+          <t>473979</t>
         </is>
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>449942</t>
+          <t>458980</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>483027</t>
+          <t>492004</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>30,54%</t>
         </is>
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>32,55%</t>
+          <t>31,7%</t>
         </is>
       </c>
     </row>
@@ -5960,32 +5960,32 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>395984</t>
+          <t>423277</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>383356</t>
+          <t>411178</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>407537</t>
+          <t>434983</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>55,48%</t>
+          <t>57,22%</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>53,71%</t>
+          <t>55,59%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>57,1%</t>
+          <t>58,81%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -5995,32 +5995,32 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>439783</t>
+          <t>479840</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>428062</t>
+          <t>467347</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>451044</t>
+          <t>492006</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>57,1%</t>
+          <t>59,07%</t>
         </is>
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>55,58%</t>
+          <t>57,53%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>58,56%</t>
+          <t>60,57%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -6030,32 +6030,32 @@
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
-          <t>835767</t>
+          <t>903117</t>
         </is>
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>817985</t>
+          <t>885908</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>852505</t>
+          <t>919187</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>56,32%</t>
+          <t>58,19%</t>
         </is>
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>55,12%</t>
+          <t>57,08%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>57,45%</t>
+          <t>59,22%</t>
         </is>
       </c>
     </row>
@@ -6073,17 +6073,17 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -6108,17 +6108,17 @@
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="N51" s="2" t="inlineStr">
@@ -6143,17 +6143,17 @@
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="U51" s="2" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2463</t>
+          <t>2284</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -6478,7 +6478,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1729</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -6508,12 +6508,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>165</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>2749</t>
+          <t>2608</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -6551,12 +6551,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>1104</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4813</t>
+          <t>5043</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -6566,12 +6566,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -6586,12 +6586,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1908</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7441</t>
+          <t>7620</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -6601,12 +6601,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -6621,12 +6621,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>3968</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>10516</t>
+          <t>11341</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -6636,12 +6636,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>9,08%</t>
         </is>
       </c>
     </row>
@@ -6664,12 +6664,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6688</t>
+          <t>6813</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6679,12 +6679,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -6699,12 +6699,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2628</t>
+          <t>2548</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9343</t>
+          <t>9199</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -6714,12 +6714,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -6734,12 +6734,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>4942</t>
+          <t>4825</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>13826</t>
+          <t>13785</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -6749,12 +6749,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>11,04%</t>
         </is>
       </c>
     </row>
@@ -6777,12 +6777,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36393</t>
+          <t>36298</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46593</t>
+          <t>46301</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -6792,12 +6792,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,42%</t>
+          <t>57,27%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>73,52%</t>
+          <t>73,06%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -6812,12 +6812,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>35991</t>
+          <t>36200</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46084</t>
+          <t>46091</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -6827,12 +6827,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>58,48%</t>
+          <t>58,82%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>74,89%</t>
+          <t>74,9%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -6847,12 +6847,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>76033</t>
+          <t>75353</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>90111</t>
+          <t>89398</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -6862,12 +6862,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>60,87%</t>
+          <t>60,32%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>72,14%</t>
+          <t>71,57%</t>
         </is>
       </c>
     </row>
@@ -6890,12 +6890,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11234</t>
+          <t>11397</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20473</t>
+          <t>21159</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -6905,12 +6905,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -6925,12 +6925,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7292</t>
+          <t>7180</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14963</t>
+          <t>14507</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -6940,12 +6940,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>23,57%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -6960,12 +6960,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>20682</t>
+          <t>20661</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>32341</t>
+          <t>31923</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -6975,12 +6975,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>25,55%</t>
         </is>
       </c>
     </row>
@@ -7120,12 +7120,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>750</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4420</t>
+          <t>4521</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -7135,12 +7135,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>3235</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -7190,12 +7190,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1395</t>
+          <t>1336</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>5722</t>
+          <t>6049</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -7205,12 +7205,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -7233,12 +7233,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6608</t>
+          <t>6286</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15666</t>
+          <t>15211</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -7248,12 +7248,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -7268,12 +7268,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8804</t>
+          <t>9159</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18500</t>
+          <t>18604</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -7283,12 +7283,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -7303,12 +7303,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>17856</t>
+          <t>17767</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>30350</t>
+          <t>30722</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -7318,12 +7318,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>12,22%</t>
         </is>
       </c>
     </row>
@@ -7346,12 +7346,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1781</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7213</t>
+          <t>6926</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7361,12 +7361,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -7381,12 +7381,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>926</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>5409</t>
+          <t>5982</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7396,12 +7396,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -7416,12 +7416,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>3379</t>
+          <t>3369</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>10091</t>
+          <t>10380</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7436,7 +7436,7 @@
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,13%</t>
         </is>
       </c>
     </row>
@@ -7459,12 +7459,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>65573</t>
+          <t>65014</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>80958</t>
+          <t>80491</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -7474,12 +7474,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,17%</t>
+          <t>52,71%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>65,64%</t>
+          <t>65,26%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -7494,12 +7494,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>63707</t>
+          <t>63847</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>81382</t>
+          <t>80718</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -7509,12 +7509,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>49,87%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>63,56%</t>
+          <t>63,05%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -7529,12 +7529,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>134947</t>
+          <t>133601</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>157370</t>
+          <t>157121</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -7544,12 +7544,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>53,68%</t>
+          <t>53,15%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>62,61%</t>
+          <t>62,51%</t>
         </is>
       </c>
     </row>
@@ -7572,12 +7572,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27060</t>
+          <t>27566</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41662</t>
+          <t>41617</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -7587,12 +7587,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>22,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>33,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -7607,12 +7607,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>30805</t>
+          <t>30981</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>46246</t>
+          <t>47438</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -7622,12 +7622,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>37,05%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -7642,12 +7642,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>60710</t>
+          <t>62851</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>82961</t>
+          <t>83817</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -7657,12 +7657,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>25,0%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>33,34%</t>
         </is>
       </c>
     </row>
@@ -7802,12 +7802,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7023</t>
+          <t>6684</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -7817,12 +7817,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -7837,12 +7837,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1766</t>
+          <t>1648</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>8168</t>
+          <t>9090</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -7852,12 +7852,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -7872,12 +7872,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>12228</t>
+          <t>12043</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -7887,12 +7887,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,46%</t>
         </is>
       </c>
     </row>
@@ -7915,12 +7915,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6825</t>
+          <t>7020</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19320</t>
+          <t>19285</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -7930,12 +7930,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -7950,12 +7950,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6443</t>
+          <t>6336</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14582</t>
+          <t>15048</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -7965,12 +7965,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -7985,12 +7985,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>15061</t>
+          <t>15750</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>29927</t>
+          <t>30056</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -8000,12 +8000,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>11,13%</t>
         </is>
       </c>
     </row>
@@ -8028,12 +8028,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>2419</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9979</t>
+          <t>9423</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8043,12 +8043,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -8063,12 +8063,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>1805</t>
+          <t>1693</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>6463</t>
+          <t>6403</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8078,12 +8078,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -8098,12 +8098,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>5258</t>
+          <t>5158</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>13181</t>
+          <t>13873</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8113,12 +8113,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
@@ -8141,12 +8141,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>71482</t>
+          <t>71986</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90906</t>
+          <t>91024</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -8156,12 +8156,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>51,55%</t>
+          <t>51,92%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>65,56%</t>
+          <t>65,65%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -8176,12 +8176,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>66319</t>
+          <t>66549</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>83466</t>
+          <t>83594</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -8191,12 +8191,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>50,63%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>63,51%</t>
+          <t>63,6%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -8211,12 +8211,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>144361</t>
+          <t>143512</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>170427</t>
+          <t>170005</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -8226,12 +8226,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>53,45%</t>
+          <t>53,14%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>63,1%</t>
+          <t>62,94%</t>
         </is>
       </c>
     </row>
@@ -8254,12 +8254,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>29363</t>
+          <t>30286</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>48785</t>
+          <t>47836</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -8269,12 +8269,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>34,5%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -8289,12 +8289,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>30895</t>
+          <t>31843</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>46769</t>
+          <t>47378</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -8304,12 +8304,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>35,58%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -8324,12 +8324,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>65273</t>
+          <t>64296</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>89147</t>
+          <t>87718</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -8339,12 +8339,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>23,81%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>32,48%</t>
         </is>
       </c>
     </row>
@@ -8484,12 +8484,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>825</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5866</t>
+          <t>5930</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -8499,12 +8499,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -8519,12 +8519,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>847</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>5528</t>
+          <t>5126</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -8534,12 +8534,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -8554,12 +8554,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>2471</t>
+          <t>2590</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>9014</t>
+          <t>8803</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -8569,12 +8569,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -8597,12 +8597,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2575</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>8740</t>
+          <t>8459</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -8632,12 +8632,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>8741</t>
+          <t>8555</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>18272</t>
+          <t>17582</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -8647,12 +8647,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -8667,12 +8667,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>13282</t>
+          <t>13140</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>24480</t>
+          <t>24590</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -8682,12 +8682,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>10,37%</t>
         </is>
       </c>
     </row>
@@ -8710,12 +8710,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>946</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5191</t>
+          <t>5189</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8725,7 +8725,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -8745,12 +8745,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>3565</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>10267</t>
+          <t>10170</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8760,12 +8760,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -8780,12 +8780,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>5421</t>
+          <t>5199</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>13150</t>
+          <t>12884</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -8795,12 +8795,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,43%</t>
         </is>
       </c>
     </row>
@@ -8823,12 +8823,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>68711</t>
+          <t>70321</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>86568</t>
+          <t>86967</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -8838,12 +8838,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>58,4%</t>
+          <t>59,77%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>73,58%</t>
+          <t>73,92%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -8858,12 +8858,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>55246</t>
+          <t>55932</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>71620</t>
+          <t>71462</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -8873,12 +8873,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>46,22%</t>
+          <t>46,79%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>59,92%</t>
+          <t>59,78%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -8893,12 +8893,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>130824</t>
+          <t>131049</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>154690</t>
+          <t>153656</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -8908,12 +8908,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>55,16%</t>
+          <t>55,25%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>65,22%</t>
+          <t>64,78%</t>
         </is>
       </c>
     </row>
@@ -8936,12 +8936,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>21581</t>
+          <t>21104</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>39206</t>
+          <t>38209</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -8951,12 +8951,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -8971,12 +8971,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>28284</t>
+          <t>28759</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>42920</t>
+          <t>43217</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -8986,12 +8986,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>36,16%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -9006,12 +9006,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>53254</t>
+          <t>53862</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>75943</t>
+          <t>75332</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -9021,12 +9021,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>31,76%</t>
         </is>
       </c>
     </row>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3516</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -9186,7 +9186,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -9201,12 +9201,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>930</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>6266</t>
+          <t>6373</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -9216,12 +9216,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -9236,12 +9236,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1385</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>7234</t>
+          <t>7491</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -9251,12 +9251,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -9279,12 +9279,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5327</t>
+          <t>4999</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>16418</t>
+          <t>15949</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -9294,12 +9294,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -9314,12 +9314,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>6737</t>
+          <t>6802</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>15922</t>
+          <t>15655</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -9329,12 +9329,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -9349,12 +9349,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>14044</t>
+          <t>13801</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>27499</t>
+          <t>28462</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -9364,12 +9364,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>13,42%</t>
         </is>
       </c>
     </row>
@@ -9392,12 +9392,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1561</t>
+          <t>1538</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>12605</t>
+          <t>13756</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -9407,12 +9407,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -9427,12 +9427,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>1138</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>12135</t>
+          <t>12732</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -9442,12 +9442,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -9462,12 +9462,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>4073</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>18301</t>
+          <t>18224</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -9477,12 +9477,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,6%</t>
         </is>
       </c>
     </row>
@@ -9505,12 +9505,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>48160</t>
+          <t>49354</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>63925</t>
+          <t>64350</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -9520,12 +9520,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>50,08%</t>
+          <t>51,33%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>66,48%</t>
+          <t>66,92%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -9540,12 +9540,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>55245</t>
+          <t>53495</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>70190</t>
+          <t>69661</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -9555,12 +9555,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>47,68%</t>
+          <t>46,17%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>60,58%</t>
+          <t>60,12%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -9575,12 +9575,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>108757</t>
+          <t>108838</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>130064</t>
+          <t>130116</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -9590,12 +9590,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>51,3%</t>
+          <t>51,33%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>61,35%</t>
+          <t>61,37%</t>
         </is>
       </c>
     </row>
@@ -9618,12 +9618,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>18210</t>
+          <t>18910</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>31281</t>
+          <t>31129</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -9633,12 +9633,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -9653,12 +9653,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>29132</t>
+          <t>29749</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>44106</t>
+          <t>44236</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -9668,12 +9668,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>38,07%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -9688,12 +9688,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>51600</t>
+          <t>52631</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>71187</t>
+          <t>70961</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -9703,12 +9703,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>33,47%</t>
         </is>
       </c>
     </row>
@@ -9883,12 +9883,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>396</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>6635</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -9903,7 +9903,7 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -9918,12 +9918,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>393</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>5154</t>
+          <t>5736</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -9933,12 +9933,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,65%</t>
         </is>
       </c>
     </row>
@@ -9961,12 +9961,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>2678</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>12523</t>
+          <t>12416</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -9976,12 +9976,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -9996,12 +9996,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>3126</t>
+          <t>2950</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>14593</t>
+          <t>13844</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -10011,12 +10011,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -10031,12 +10031,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>7095</t>
+          <t>7164</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>19895</t>
+          <t>20459</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -10046,12 +10046,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>13,01%</t>
         </is>
       </c>
     </row>
@@ -10074,12 +10074,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>634</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>7478</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>3470</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -10129,7 +10129,7 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -10144,12 +10144,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>1532</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>8667</t>
+          <t>8933</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -10159,12 +10159,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,68%</t>
         </is>
       </c>
     </row>
@@ -10187,12 +10187,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>32853</t>
+          <t>33345</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>46062</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -10202,12 +10202,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>47,54%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>66,57%</t>
+          <t>66,66%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -10222,12 +10222,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>40792</t>
+          <t>40876</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>55564</t>
+          <t>55451</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -10237,12 +10237,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>46,26%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>63,01%</t>
+          <t>62,88%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -10257,12 +10257,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>78158</t>
+          <t>77655</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>97501</t>
+          <t>96839</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -10272,12 +10272,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>49,37%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>61,99%</t>
+          <t>61,57%</t>
         </is>
       </c>
     </row>
@@ -10300,12 +10300,12 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>15722</t>
+          <t>15434</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>27929</t>
+          <t>27703</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -10315,12 +10315,12 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>40,42%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -10335,12 +10335,12 @@
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>24397</t>
+          <t>24965</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>38087</t>
+          <t>37816</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -10350,12 +10350,12 @@
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>43,19%</t>
+          <t>42,88%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -10370,12 +10370,12 @@
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>43395</t>
+          <t>43884</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>61308</t>
+          <t>62165</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -10385,12 +10385,12 @@
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>27,59%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>39,52%</t>
         </is>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>1426</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -10565,12 +10565,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>1309</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>7251</t>
+          <t>7357</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -10580,12 +10580,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -10600,12 +10600,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>1522</t>
+          <t>1454</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>7415</t>
+          <t>7272</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -10615,12 +10615,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,99%</t>
         </is>
       </c>
     </row>
@@ -10643,12 +10643,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6523</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -10658,12 +10658,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -10678,12 +10678,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>1771</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>7773</t>
+          <t>7599</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -10693,12 +10693,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -10713,12 +10713,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>3922</t>
+          <t>3862</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>11689</t>
+          <t>11391</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -10728,12 +10728,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,25%</t>
         </is>
       </c>
     </row>
@@ -10756,12 +10756,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>410</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>4560</t>
+          <t>4187</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -10771,12 +10771,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -10791,12 +10791,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>1796</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>8950</t>
+          <t>9012</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -10806,12 +10806,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -10826,12 +10826,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>3030</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>10265</t>
+          <t>10709</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -10841,12 +10841,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,87%</t>
         </is>
       </c>
     </row>
@@ -10869,12 +10869,12 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>35964</t>
+          <t>35859</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>47285</t>
+          <t>47610</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -10884,12 +10884,12 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>52,16%</t>
+          <t>52,01%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>68,58%</t>
+          <t>69,05%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -10904,12 +10904,12 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>60362</t>
+          <t>61179</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>76239</t>
+          <t>76953</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -10919,12 +10919,12 @@
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>53,24%</t>
+          <t>53,96%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>67,24%</t>
+          <t>67,87%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -10939,12 +10939,12 @@
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>100786</t>
+          <t>98882</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>120178</t>
+          <t>119523</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -10954,12 +10954,12 @@
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>54,23%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>65,91%</t>
+          <t>65,55%</t>
         </is>
       </c>
     </row>
@@ -10982,12 +10982,12 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>17554</t>
+          <t>16763</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>28049</t>
+          <t>27458</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -10997,12 +10997,12 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>40,68%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -11017,12 +11017,12 @@
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>26957</t>
+          <t>26221</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>41576</t>
+          <t>41112</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -11032,12 +11032,12 @@
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>36,26%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -11052,12 +11052,12 @@
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>46919</t>
+          <t>46967</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>65231</t>
+          <t>66284</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
@@ -11067,12 +11067,12 @@
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>25,76%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>36,35%</t>
         </is>
       </c>
     </row>
@@ -11212,12 +11212,12 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5760</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>13921</t>
+          <t>14017</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -11227,12 +11227,12 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -11247,12 +11247,12 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>10314</t>
+          <t>10388</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>21327</t>
+          <t>21871</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -11262,12 +11262,12 @@
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
@@ -11282,12 +11282,12 @@
       </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>18366</t>
+          <t>18119</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr">
         <is>
-          <t>32656</t>
+          <t>32088</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
@@ -11297,12 +11297,12 @@
       </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,24%</t>
         </is>
       </c>
     </row>
@@ -11325,12 +11325,12 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>37756</t>
+          <t>37371</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>58427</t>
+          <t>59557</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -11340,12 +11340,12 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -11360,12 +11360,12 @@
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>51445</t>
+          <t>49830</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>72971</t>
+          <t>72995</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -11375,7 +11375,7 @@
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
@@ -11395,12 +11395,12 @@
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>92314</t>
+          <t>94295</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr">
         <is>
-          <t>123835</t>
+          <t>125479</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
@@ -11410,12 +11410,12 @@
       </c>
       <c r="V47" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="W47" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,74%</t>
         </is>
       </c>
     </row>
@@ -11438,12 +11438,12 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>16981</t>
+          <t>16855</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>33495</t>
+          <t>32420</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
@@ -11453,12 +11453,12 @@
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
@@ -11473,12 +11473,12 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>19051</t>
+          <t>19430</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>35116</t>
+          <t>35805</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -11488,12 +11488,12 @@
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -11508,12 +11508,12 @@
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>39384</t>
+          <t>38709</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr">
         <is>
-          <t>62503</t>
+          <t>61165</t>
         </is>
       </c>
       <c r="U48" s="2" t="inlineStr">
@@ -11523,12 +11523,12 @@
       </c>
       <c r="V48" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="W48" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,26%</t>
         </is>
       </c>
     </row>
@@ -11551,12 +11551,12 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>394346</t>
+          <t>394954</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>435263</t>
+          <t>433968</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -11566,12 +11566,12 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>58,23%</t>
+          <t>58,32%</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>64,27%</t>
+          <t>64,08%</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
@@ -11586,12 +11586,12 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>413333</t>
+          <t>412563</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>453701</t>
+          <t>451554</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -11601,12 +11601,12 @@
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>54,53%</t>
+          <t>54,43%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>59,86%</t>
+          <t>59,57%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -11621,12 +11621,12 @@
       </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>813834</t>
+          <t>819974</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr">
         <is>
-          <t>873322</t>
+          <t>874970</t>
         </is>
       </c>
       <c r="U49" s="2" t="inlineStr">
@@ -11636,12 +11636,12 @@
       </c>
       <c r="V49" s="2" t="inlineStr">
         <is>
-          <t>56,71%</t>
+          <t>57,13%</t>
         </is>
       </c>
       <c r="W49" s="2" t="inlineStr">
         <is>
-          <t>60,85%</t>
+          <t>60,97%</t>
         </is>
       </c>
     </row>
@@ -11664,12 +11664,12 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>164952</t>
+          <t>166672</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>202357</t>
+          <t>202649</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -11679,12 +11679,12 @@
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>29,92%</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
@@ -11699,12 +11699,12 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>205611</t>
+          <t>205414</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>244627</t>
+          <t>242038</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
@@ -11714,12 +11714,12 @@
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>32,27%</t>
+          <t>31,93%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -11734,12 +11734,12 @@
       </c>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>382953</t>
+          <t>383233</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr">
         <is>
-          <t>435491</t>
+          <t>434933</t>
         </is>
       </c>
       <c r="U50" s="2" t="inlineStr">
@@ -11749,12 +11749,12 @@
       </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>30,3%</t>
         </is>
       </c>
     </row>
